--- a/docu/TestUploadFolder/admin/Man_Gal_4.xlsx
+++ b/docu/TestUploadFolder/admin/Man_Gal_4.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2252F4E4-F6B6-437F-9ADD-1031B019BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58560" yWindow="-6360" windowWidth="21600" windowHeight="11325"/>
+    <workbookView xWindow="34770" yWindow="495" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,17 +15,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -83,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +307,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -594,19 +584,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -628,7 +618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -642,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -656,7 +646,7 @@
         <v>44887</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -667,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -678,7 +668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -689,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="8">
         <v>5.5777999999999999</v>
       </c>
@@ -697,7 +687,7 @@
         <v>9.3960000000000008</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -708,392 +698,368 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>2.0377797006510842E-5</v>
+        <v>7.2113943886226366E-6</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>9.9086054552502418E-6</v>
+        <v>1.1204006687837419E-5</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>6</v>
       </c>
       <c r="B12">
-        <v>8.0689296102524772E-6</v>
+        <v>4.9801833426524394E-5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13">
-        <v>7.2113943886226366E-6</v>
+        <v>1.6967005237819902E-4</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14">
-        <v>1.1204006687837419E-5</v>
+        <v>4.8620459402013626E-4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>4.9801833426524394E-5</v>
+        <v>1.3088195030511817E-2</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.6967005237819902E-4</v>
+        <v>1.5205999999999999E-2</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.1731872971328884E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4.8620459402013626E-4</v>
+        <v>2.9878799999999997E-2</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.1005551156093203E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.3088195030511817E-2</v>
+        <v>0.54119974133272197</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.6630813346306949E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1.5205999999999999E-2</v>
+        <v>0.6947608000680161</v>
       </c>
       <c r="C19">
-        <v>4.1731872971328884E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.12008829195667867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>22</v>
       </c>
       <c r="B20">
-        <v>2.9878799999999997E-2</v>
+        <v>0.66144353876786199</v>
       </c>
       <c r="C20">
-        <v>1.1005551156093203E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.20776766861496593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.54119974133272197</v>
+        <v>0.52242262383308269</v>
       </c>
       <c r="C21">
-        <v>4.6630813346306949E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.29801891163734073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>0.6947608000680161</v>
+        <v>0.36712701486234428</v>
       </c>
       <c r="C22">
-        <v>0.12008829195667867</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.37531890214304781</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.66144353876786199</v>
+        <v>0.187134606903234</v>
       </c>
       <c r="C23">
-        <v>0.20776766861496593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.38230514637322094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.52242262383308269</v>
+        <v>0.10415536541332132</v>
       </c>
       <c r="C24">
-        <v>0.29801891163734073</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.44014104597919046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>32</v>
       </c>
       <c r="B25">
-        <v>0.36712701486234428</v>
+        <v>3.3172400765147325E-2</v>
       </c>
       <c r="C25">
-        <v>0.37531890214304781</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.44864726184612863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0.187134606903234</v>
+        <v>1.0196843456070612E-2</v>
       </c>
       <c r="C26">
-        <v>0.38230514637322094</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.35930006335833925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>36</v>
       </c>
       <c r="B27">
-        <v>0.10415536541332132</v>
+        <v>4.3882836843881822E-3</v>
       </c>
       <c r="C27">
-        <v>0.44014104597919046</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.27236308215436744</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>3.3172400765147325E-2</v>
+        <v>2.4915833453329254E-3</v>
       </c>
       <c r="C28">
-        <v>0.44864726184612863</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.18476991462857736</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>45</v>
       </c>
       <c r="B29">
-        <v>1.0196843456070612E-2</v>
+        <v>1.6396991999057052E-3</v>
       </c>
       <c r="C29">
-        <v>0.35930006335833925</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.11444668618328926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>50</v>
       </c>
       <c r="B30">
-        <v>4.3882836843881822E-3</v>
+        <v>1.048850708624657E-3</v>
       </c>
       <c r="C30">
-        <v>0.27236308215436744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.9400974852028531E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>55</v>
       </c>
       <c r="B31">
-        <v>2.4915833453329254E-3</v>
+        <v>7.7743969714777299E-4</v>
       </c>
       <c r="C31">
-        <v>0.18476991462857736</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.9512935077695476E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>60</v>
       </c>
       <c r="B32">
-        <v>1.6396991999057052E-3</v>
+        <v>6.6677329171295062E-4</v>
       </c>
       <c r="C32">
-        <v>0.11444668618328926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.455614276017553E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>65</v>
       </c>
       <c r="B33">
-        <v>1.048850708624657E-3</v>
+        <v>5.1622666449353284E-4</v>
       </c>
       <c r="C33">
-        <v>4.9400974852028531E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.8515534805609502E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>70</v>
       </c>
       <c r="B34">
-        <v>7.7743969714777299E-4</v>
+        <v>4.7844913714128453E-4</v>
       </c>
       <c r="C34">
-        <v>2.9512935077695476E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8790386548435882E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>75</v>
       </c>
       <c r="B35">
-        <v>6.6677329171295062E-4</v>
+        <v>4.0278708116747264E-4</v>
       </c>
       <c r="C35">
-        <v>1.455614276017553E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2.5842649012378107E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>80</v>
       </c>
       <c r="B36">
-        <v>5.1622666449353284E-4</v>
+        <v>3.3015992027334582E-4</v>
       </c>
       <c r="C36">
-        <v>6.8515534805609502E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.3893919064438555E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>85</v>
       </c>
       <c r="B37">
-        <v>4.7844913714128453E-4</v>
+        <v>2.6090058029255755E-4</v>
       </c>
       <c r="C37">
-        <v>3.8790386548435882E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>9.4295813506796845E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>90</v>
       </c>
       <c r="B38">
-        <v>4.0278708116747264E-4</v>
+        <v>2.1950066620617375E-4</v>
       </c>
       <c r="C38">
-        <v>2.5842649012378107E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>7.4733556362023741E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>105</v>
       </c>
       <c r="B39">
-        <v>3.3015992027334582E-4</v>
+        <v>1.8466042889956523E-4</v>
       </c>
       <c r="C39">
-        <v>1.3893919064438555E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.8270079715690062E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>120</v>
       </c>
       <c r="B40">
-        <v>2.6090058029255755E-4</v>
+        <v>1.5777845609025093E-4</v>
       </c>
       <c r="C40">
-        <v>9.4295813506796845E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.7451995851986712E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>135</v>
       </c>
       <c r="B41">
-        <v>2.1950066620617375E-4</v>
+        <v>1.4185144344926415E-4</v>
       </c>
       <c r="C41">
-        <v>7.4733556362023741E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>150</v>
-      </c>
-      <c r="B42">
-        <v>1.8466042889956523E-4</v>
-      </c>
-      <c r="C42">
-        <v>5.8270079715690062E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>165</v>
-      </c>
-      <c r="B43">
-        <v>1.5777845609025093E-4</v>
-      </c>
-      <c r="C43">
-        <v>4.7451995851986712E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>180</v>
-      </c>
-      <c r="B44">
-        <v>1.4185144344926415E-4</v>
-      </c>
-      <c r="C44">
         <v>4.1373784986514978E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4"/>
+    </row>
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4"/>
+    </row>
+    <row r="44" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
